--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1160,8 +1160,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>do not print this form</t>
   </si>
@@ -303,6 +303,87 @@
   </si>
   <si>
     <t>The key entitites respects the domain and bussiness logic</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>Decision logic is adequate, conditions are well separated and the logic between statements is used in a manner that makes it easy to read</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>From the three java branching statements, only return is used, continue and brake are left out.</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Notificator.java/27</t>
+  </si>
+  <si>
+    <t>There is one undefined loop termination, in the run function that overrides the Thread class run function. If you need to close the thread you need to close the whole application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C04 </t>
+  </si>
+  <si>
+    <t>There are no I/O format errors</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>DataService.java/26</t>
+  </si>
+  <si>
+    <t>LocalData is called in some cases with null not a LocalDate object</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>There are no errors preparing or processing input data</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>Controller.java/50-54</t>
+  </si>
+  <si>
+    <t>There are errors when datePickerFrom, datePickerTo and fieldTimeTo, fieldTimeFrom are not declared</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>There is error message processing but its not universally implemented</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>There is no confusion using parameters.</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>No errors have been observed in loop counters</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Errors are not made in writing out variable names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12 </t>
+  </si>
+  <si>
+    <t>Variable type and dimensions are correctly declared</t>
   </si>
 </sst>
 </file>
@@ -483,36 +564,6 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +599,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -907,326 +988,326 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="11"/>
-    <col min="2" max="2" width="12.3125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="11"/>
-    <col min="9" max="9" width="21" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="11" customWidth="1"/>
-    <col min="11" max="1024" width="8.89453125" style="11"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="12.3125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.41796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.89453125" style="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.41796875" style="1" customWidth="1"/>
+    <col min="11" max="1024" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="4">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="25"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="26"/>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B25" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="14">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="14">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="22" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="14">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="22" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="14">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="22" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="14">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="23"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="24"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="24"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="E27" s="24"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="25"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E30" s="24"/>
+      <c r="E30" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1249,308 +1330,308 @@
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="11"/>
-    <col min="2" max="2" width="12.3125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="11"/>
-    <col min="9" max="9" width="22.05078125" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.89453125" style="11"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="12.3125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.3125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.41796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.89453125" style="1"/>
+    <col min="9" max="9" width="22.05078125" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="4">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="27"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="28"/>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="4">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="14">
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="28" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="18" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="14">
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="28" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14">
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="18" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14">
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14">
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="14">
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="28" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="14">
+    <row r="19" spans="2:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="14">
+      <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <v>14</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <v>15</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="14">
+      <c r="B26" s="4">
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E27" s="29"/>
+      <c r="E27" s="19"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1573,309 +1654,352 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="11"/>
-    <col min="2" max="2" width="12.3125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="11"/>
-    <col min="9" max="9" width="26.734375" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.89453125" style="11"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="12.3125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.41796875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.89453125" style="1"/>
+    <col min="9" max="9" width="26.734375" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="29"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="30"/>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="14">
-        <f t="shared" ref="B11:B30" si="0">B10+1</f>
+      <c r="B11" s="4">
         <v>2</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
+      <c r="B12" s="4">
         <v>3</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
+      <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14">
-        <f t="shared" si="0"/>
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14">
-        <f t="shared" si="0"/>
+      <c r="B15" s="4">
         <v>6</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14">
-        <f t="shared" si="0"/>
+      <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14">
-        <f t="shared" si="0"/>
+      <c r="B17" s="4">
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="14">
-        <f t="shared" si="0"/>
+      <c r="B18" s="4">
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="14">
-        <f t="shared" si="0"/>
+      <c r="B19" s="4">
         <v>10</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="14">
-        <f t="shared" si="0"/>
+      <c r="B20" s="4">
         <v>11</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="14">
-        <f t="shared" si="0"/>
+      <c r="B21" s="4">
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="14">
-        <f t="shared" si="0"/>
+      <c r="B22" s="4">
+        <f t="shared" ref="B11:B30" si="0">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="14">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="14">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="20"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="14">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="14">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="14">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="29"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1898,324 +2022,324 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="11"/>
-    <col min="2" max="2" width="12.3125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="11" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="11"/>
-    <col min="9" max="9" width="26.734375" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.89453125" style="11"/>
+    <col min="1" max="1" width="8.89453125" style="1"/>
+    <col min="2" max="2" width="12.3125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.9453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.62890625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.89453125" style="1"/>
+    <col min="9" max="9" width="26.734375" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.89453125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="H4" s="14" t="s">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="H5" s="14" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="8" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="14">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="14">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="14">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="14">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="14">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="14">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="14">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="14">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="14">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="14">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="14">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="14">
+      <c r="B28" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="14">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="14">
+      <c r="B30" s="4">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E31" s="29"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="143">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -85,745 +85,13 @@
     <t xml:space="preserve">Comments/ improvements</t>
   </si>
   <si>
-    <t xml:space="preserve">Effort to review document (hours):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Form. Architectural Design Defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architectural Design Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author Name: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgescu Anca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review Form. Coding Defects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding Document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Popescu Ionel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool-based Code Analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool used:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File, Line</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Before</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After/Argument</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main.java:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rename this constant name to match the regular expression '^[A-Z][A-Z0-9](_[A-Z0-9]+)$'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">defaultWidth </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">820</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DEFAULT_WIDTH </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">820</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">main.java:25</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">defaultHeight </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">520</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DEFAULT_HEIGHT </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">520</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskService.java:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This block of commented-out lines of code should be removed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">//Iterable&lt;Task&gt; filtered = tasks.incoming(start, end);
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:18</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">secondsInDay </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">86400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SECONDS_IN_DAY </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">86400</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:19</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">secondsInHour </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SECONDS_IN_HOUR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">3600</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:20</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">secondsInMin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">private static final int </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="13"/>
-        <color rgb="FF85609A"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">SECONDS_IN_MIN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF5684AD"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change this try to a try-with-resources</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">try </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">{
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(DataOutputStream dataOutputStream = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DataOutputStream(out)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">){</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskIO.java:47</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(DataInputStream dataInputStream = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">DataInputStream(in)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">) {</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:70</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">try</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">(FileOutputStream fos = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">new </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">FileOutputStream(file)) {</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">TaskDataContext.java:74/83</t>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What technology stack should the app be developed on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R06</t>
   </si>
   <si>
     <r>
@@ -833,63 +101,341 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">sonar define a constant instead of duplicating this literal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF587647"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"IO exception reading or writing file"</t>
-    </r>
-  </si>
-  <si>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">the purpose of  the application is </t>
+    </r>
     <r>
       <rPr>
         <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> summarised i</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">n just a few words: no info about the u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ser flow or target users</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">R01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no info about features that are “Nice-to-have”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all the fields that are related to date/time have no format info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where is it going to be hosted and who is going to maintain it over time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What design considerations/constraints do the  app have to work within?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no guidelines related to architecture and design principles with which the application will be designed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">No info about Security or </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Database management</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No info about Test strategy, Test plan, Test case specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The requirements are not structured according to the different user types that will use the app. Generally, user documentation is aimed at two large categories: end-users and system administrators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effort to review document (hours):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Form. Architectural Design Defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural Design Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author Name: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgescu Anca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Layering, Good package Naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Package Correspond to a specific layer. There should have been also a repository package, the application does not have any repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no method to add Description to  a Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model Package should Correspond to Bussines layer but it contains Infrastructure Logic too. Controller Package should contain only controller but we can also find Infrastructure specific Class (Notificator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error handling is made by try catching. There is no Gracefull Degradation lagic implemented, some methods are are fail safe and do not have try catches, and the try catches does not include support for unexpected errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The task should have a builder given the fact that it contain multiple optional features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskIO Classs is in Services Packges ( which is a bussines logic package) but it contains infrastructure logic so this should be migrated into a Repository or a DataContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The responsibility of each class is well defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The relationship of classes is well defined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The key entitites respects the domain and bussiness logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Form. Coding Defects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popescu Ionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision logic is adequate, conditions are well separated and the logic between statements is used in a manner that makes it easy to read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the three java branching statements, only return is used, continue and brake are left out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notificator.java/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is one undefined loop termination, in the run function that overrides the Thread class run function. If you need to close the thread you need to close the whole application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no I/O format errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DataService.java/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LocalData is called in some cases with null not a LocalDate object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are no errors preparing or processing input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controller.java/50-54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are errors when datePickerFrom, datePickerTo and fieldTimeTo, fieldTimeFrom are not declared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is error message processing but its not universally implemented</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no confusion using parameters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No errors have been observed in loop counters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errors are not made in writing out variable names</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable type and dimensions are correctly declared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool-based Code Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool used:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File, Line</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After/Argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main.java:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rename this constant name to match the regular expression '^[A-Z][A-Z0-9](_[A-Z0-9]+)$'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
         <sz val="13"/>
         <color rgb="FF85609A"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">log</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.error(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF587647"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">"IO exception reading or writing file"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF99A8BA"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FFBF6426"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">defaultWidth </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">820</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -898,11 +444,742 @@
   <si>
     <r>
       <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
         <i val="true"/>
         <sz val="13"/>
         <color rgb="FF85609A"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DEFAULT_WIDTH </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">820</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">main.java:25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">defaultHeight </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">520</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DEFAULT_HEIGHT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">520</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskService.java:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This block of commented-out lines of code should be removed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//Iterable&lt;Task&gt; filtered = tasks.incoming(start, end);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">secondsInDay </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">86400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SECONDS_IN_DAY </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">86400</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:19</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">secondsInHour </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SECONDS_IN_HOUR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3600</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">secondsInMin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">private static final int </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SECONDS_IN_MIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF5684AD"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change this try to a try-with-resources</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">try </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DataOutputStream dataOutputStream = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DataOutputStream(out)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">){</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskIO.java:47</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(DataInputStream dataInputStream = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DataInputStream(in)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:70</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">try</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(FileOutputStream fos = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">FileOutputStream(file)) {</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">TaskDataContext.java:74/83</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sonar define a constant instead of duplicating this literal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF587647"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"IO exception reading or writing file"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">log</t>
     </r>
@@ -912,6 +1189,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.error(</t>
     </r>
@@ -921,6 +1199,61 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"IO exception reading or writing file"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFBF6426"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="13"/>
+        <color rgb="FF85609A"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">log</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF99A8BA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.error(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF587647"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"IO exception writing file"</t>
     </r>
@@ -930,6 +1263,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -939,6 +1273,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
  And </t>
@@ -950,6 +1285,7 @@
         <color rgb="FF85609A"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">log</t>
     </r>
@@ -959,6 +1295,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.error(</t>
     </r>
@@ -968,6 +1305,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"IO exception reading file"</t>
     </r>
@@ -977,6 +1315,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -986,6 +1325,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1001,6 +1341,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">try</t>
     </r>
@@ -1010,6 +1351,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(FileWriter fileWriter = </t>
     </r>
@@ -1019,6 +1361,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">new </t>
     </r>
@@ -1028,6 +1371,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">FileWriter(file)</t>
     </r>
@@ -1037,6 +1381,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1046,6 +1391,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) {</t>
     </r>
@@ -1060,6 +1406,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">try</t>
     </r>
@@ -1069,6 +1416,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(FileReader fileReader = </t>
     </r>
@@ -1078,6 +1426,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">new </t>
     </r>
@@ -1087,6 +1436,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">FileReader(file)</t>
     </r>
@@ -1096,6 +1446,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1105,6 +1456,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) {
 </t>
@@ -1123,6 +1475,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -1132,6 +1485,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">days</t>
     </r>
@@ -1141,6 +1495,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1150,6 +1505,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hours</t>
     </r>
@@ -1159,6 +1515,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1168,6 +1525,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">minutes</t>
     </r>
@@ -1177,6 +1535,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1186,6 +1545,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">seconds</t>
     </r>
@@ -1195,6 +1555,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1205,6 +1566,7 @@
         <color rgb="FF6D6D6D"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">//[1 day 2 hours 46 minutes 40 seconds].
 //[46 minutes 40 seconds].
@@ -1217,6 +1579,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -1226,6 +1589,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">start = line.lastIndexOf(</t>
     </r>
@@ -1235,6 +1599,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"["</t>
     </r>
@@ -1244,6 +1609,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1253,6 +1619,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 int </t>
@@ -1263,6 +1630,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">end = line.lastIndexOf(</t>
     </r>
@@ -1272,6 +1640,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"]"</t>
     </r>
@@ -1281,6 +1650,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1290,6 +1660,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1300,6 +1671,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">String trimmed = line.substring(start+</t>
     </r>
@@ -1309,6 +1681,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1318,6 +1691,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1327,6 +1701,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">end)</t>
     </r>
@@ -1336,6 +1711,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1345,6 +1721,7 @@
         <color rgb="FF6D6D6D"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">//returns interval without brackets -&gt; 2 hours 46 minutes
 </t>
@@ -1355,6 +1732,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">days = trimmed.contains(</t>
     </r>
@@ -1364,6 +1742,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"day"</t>
     </r>
@@ -1373,6 +1752,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) ? </t>
     </r>
@@ -1382,6 +1762,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -1391,6 +1772,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1400,6 +1782,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1409,6 +1792,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1419,6 +1803,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hours = trimmed.contains(</t>
     </r>
@@ -1428,6 +1813,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"hour"</t>
     </r>
@@ -1437,6 +1823,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) ? </t>
     </r>
@@ -1446,6 +1833,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -1455,6 +1843,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1464,6 +1853,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1473,6 +1863,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1483,6 +1874,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">minutes = trimmed.contains(</t>
     </r>
@@ -1492,6 +1884,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"minute"</t>
     </r>
@@ -1501,6 +1894,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) ? </t>
     </r>
@@ -1510,6 +1904,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -1519,6 +1914,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1528,6 +1924,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1537,6 +1934,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1547,6 +1945,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">seconds = trimmed.contains(</t>
     </r>
@@ -1556,6 +1955,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"second"</t>
     </r>
@@ -1565,6 +1965,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) ? </t>
     </r>
@@ -1574,6 +1975,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -1583,6 +1985,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -1592,6 +1995,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1601,6 +2005,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 int</t>
@@ -1611,6 +2016,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[] timeEntities = </t>
     </r>
@@ -1620,6 +2026,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">new int</t>
     </r>
@@ -1629,6 +2036,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[]{days</t>
     </r>
@@ -1638,6 +2046,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1647,6 +2056,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">hours</t>
     </r>
@@ -1656,6 +2066,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1665,6 +2076,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">minutes</t>
     </r>
@@ -1674,6 +2086,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1683,6 +2096,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">seconds}</t>
     </r>
@@ -1692,6 +2106,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 int </t>
@@ -1702,6 +2117,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">i = </t>
     </r>
@@ -1711,6 +2127,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1720,6 +2137,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1729,6 +2147,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">j = timeEntities.</t>
     </r>
@@ -1738,6 +2157,7 @@
         <color rgb="FF85609A"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">length</t>
     </r>
@@ -1747,6 +2167,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-</t>
     </r>
@@ -1756,6 +2177,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1765,6 +2187,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -1774,6 +2197,7 @@
         <color rgb="FF6D6D6D"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">// positions of timeEntities available
 </t>
@@ -1784,6 +2208,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">while </t>
     </r>
@@ -1793,6 +2218,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(i != </t>
     </r>
@@ -1802,6 +2228,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -1811,6 +2238,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">&amp;&amp; j != </t>
     </r>
@@ -1820,6 +2248,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1</t>
     </r>
@@ -1829,6 +2258,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) {
     </t>
@@ -1839,6 +2269,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">if </t>
     </r>
@@ -1848,6 +2279,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(timeEntities[i] == </t>
     </r>
@@ -1857,6 +2289,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1866,6 +2299,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) i++</t>
     </r>
@@ -1875,6 +2309,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
     if </t>
@@ -1885,6 +2320,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(timeEntities[j] == </t>
     </r>
@@ -1894,6 +2330,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
@@ -1903,6 +2340,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) j--</t>
     </r>
@@ -1912,6 +2350,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -1922,6 +2361,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}
 </t>
@@ -1932,6 +2372,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -1942,6 +2383,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">String[] numAndTextValues = trimmed.split(</t>
     </r>
@@ -1951,6 +2393,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">" "</t>
     </r>
@@ -1960,6 +2403,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1969,6 +2413,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 for </t>
@@ -1979,6 +2424,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1988,6 +2434,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int </t>
     </r>
@@ -1997,6 +2444,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">k = </t>
     </r>
@@ -2006,6 +2454,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">0 </t>
     </r>
@@ -2015,6 +2464,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">; </t>
     </r>
@@ -2024,6 +2474,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">k &lt; numAndTextValues.</t>
     </r>
@@ -2033,6 +2484,7 @@
         <color rgb="FF85609A"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">length</t>
     </r>
@@ -2042,6 +2494,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">; </t>
     </r>
@@ -2051,6 +2504,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">k+=</t>
     </r>
@@ -2060,6 +2514,7 @@
         <color rgb="FF5684AD"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -2069,6 +2524,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">){
     timeEntities[i] = Integer.</t>
@@ -2080,6 +2536,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">parseInt</t>
     </r>
@@ -2089,6 +2546,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(numAndTextValues[k])</t>
     </r>
@@ -2098,6 +2556,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
     </t>
@@ -2108,6 +2567,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">i++</t>
     </r>
@@ -2117,6 +2577,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -2127,6 +2588,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -2138,6 +2600,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">int</t>
     </r>
@@ -2147,6 +2610,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[] timeEntities = </t>
     </r>
@@ -2157,6 +2621,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getTimeEntities</t>
     </r>
@@ -2166,6 +2631,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(line)</t>
     </r>
@@ -2175,6 +2641,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;
 </t>
@@ -2190,6 +2657,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">try</t>
     </r>
@@ -2199,6 +2667,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(FileOutputStream fos = </t>
     </r>
@@ -2208,6 +2677,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">new </t>
     </r>
@@ -2217,6 +2687,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">FileOutputStream(file)</t>
     </r>
@@ -2226,6 +2697,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;</t>
     </r>
@@ -2235,6 +2707,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">) {
 </t>
@@ -2253,6 +2726,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">private static </t>
     </r>
@@ -2262,6 +2736,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SimpleDateFormat </t>
     </r>
@@ -2271,6 +2746,7 @@
         <color rgb="FFFEBB5B"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">getSimpleDateFormat</t>
     </r>
@@ -2280,6 +2756,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">() {    </t>
     </r>
@@ -2289,6 +2766,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">return new </t>
     </r>
@@ -2298,6 +2776,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SimpleDateFormat(</t>
     </r>
@@ -2307,6 +2786,7 @@
         <color rgb="FF587647"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">"[yyyy-MM-dd HH:mm:ss.SSS]"</t>
     </r>
@@ -2316,6 +2796,7 @@
         <color rgb="FF99A8BA"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -2325,6 +2806,7 @@
         <color rgb="FFBF6426"/>
         <rFont val="JetBrains Mono"/>
         <family val="3"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">;}</t>
     </r>
@@ -2340,12 +2822,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2363,11 +2846,19 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2375,6 +2866,7 @@
       <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2382,6 +2874,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -2390,6 +2883,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2397,12 +2891,30 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFBF6426"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2410,36 +2922,42 @@
       <color rgb="FF85609A"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF99A8BA"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF5684AD"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF6D6D6D"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF587647"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF85609A"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -2447,18 +2965,14 @@
       <color rgb="FF99A8BA"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFFEBB5B"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2503,14 +3017,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -2549,12 +3063,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2566,95 +3076,91 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2662,31 +3168,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2768,25 +3290,25 @@
     <tabColor rgb="FFCCC1DA"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="20.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2797,7 +3319,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2812,7 +3334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2823,7 +3345,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
@@ -2841,7 +3363,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -2859,7 +3381,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
@@ -2867,14 +3389,14 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -2888,158 +3410,214 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="17"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="15"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="20"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3069,21 +3647,21 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3094,9 +3672,9 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3109,42 +3687,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="21" t="s">
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="22"/>
+      <c r="D4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="23"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="23"/>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
@@ -3152,14 +3742,14 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -3173,164 +3763,188 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="43.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
-        <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
-        <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
-        <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
-        <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
-        <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
-        <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
-        <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
-        <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
-        <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
-        <f aca="false">B19+1</f>
         <v>11</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
-        <f aca="false">B20+1</f>
         <v>12</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="25"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
-        <f aca="false">B21+1</f>
         <v>13</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
-        <f aca="false">B22+1</f>
         <v>14</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
-        <f aca="false">B23+1</f>
         <v>15</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
-        <f aca="false">B24+1</f>
         <v>16</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
-        <f aca="false">B25+1</f>
         <v>17</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="19" t="s">
-        <v>20</v>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="15"/>
@@ -3363,22 +3977,22 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.41"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3389,9 +4003,9 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3404,42 +4018,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="24" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="25"/>
+      <c r="D4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="28"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="24" t="s">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="26"/>
+      <c r="D5" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="29"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
@@ -3447,14 +4061,14 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -3468,200 +4082,243 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
-        <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
-        <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
-        <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
-        <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
-        <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
-        <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
-        <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
-        <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
-        <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
-        <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
-        <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
       <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="19" t="s">
-        <v>20</v>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="15"/>
@@ -3693,24 +4350,24 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D47" activeCellId="0" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -3721,9 +4378,9 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -3736,26 +4393,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="11" t="s">
         <v>14</v>
       </c>
@@ -3767,7 +4424,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>15</v>
@@ -3775,21 +4432,21 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,34 +4454,34 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="89.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>40</v>
+        <v>102</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="76.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3833,15 +4490,15 @@
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="16"/>
+        <v>105</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
@@ -3849,16 +4506,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>46</v>
+        <v>108</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3867,16 +4524,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>49</v>
+        <v>111</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="76.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3885,16 +4542,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>52</v>
+        <v>114</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3903,16 +4560,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>56</v>
+        <v>117</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3921,16 +4578,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>58</v>
+        <v>121</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,16 +4596,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>60</v>
+        <v>123</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="182.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3957,16 +4614,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>64</v>
+        <v>125</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="91.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3975,16 +4632,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>66</v>
+        <v>129</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,34 +4650,34 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="1149.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>131</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="1073.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>72</v>
+        <v>133</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="106.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,16 +4686,16 @@
         <v>14</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>74</v>
+        <v>137</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="197.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,89 +4704,88 @@
         <v>15</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="22.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>137</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+    </row>
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+    </row>
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="16"/>
+      <c r="D27" s="25"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="18"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="26"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
